--- a/tests/for_concat/for_func2_extract_template_info/仅含表头的总表2_基于样表2_有数据.xlsx
+++ b/tests/for_concat/for_func2_extract_template_info/仅含表头的总表2_基于样表2_有数据.xlsx
@@ -704,41 +704,95 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="n"/>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="9" t="n"/>
-      <c r="I2" s="9" t="n"/>
-      <c r="J2" s="9" t="n"/>
-      <c r="K2" s="9" t="n"/>
-      <c r="L2" s="9" t="n"/>
-      <c r="M2" s="9" t="n"/>
-      <c r="N2" s="9" t="n"/>
-      <c r="O2" s="9" t="n"/>
-      <c r="P2" s="9" t="n"/>
-      <c r="Q2" s="9" t="n"/>
-      <c r="R2" s="9" t="n"/>
-      <c r="S2" s="9" t="n"/>
-      <c r="T2" s="9" t="n"/>
-      <c r="U2" s="9" t="n"/>
-      <c r="V2" s="9" t="n"/>
-      <c r="W2" s="9" t="n"/>
-      <c r="X2" s="9" t="n"/>
-      <c r="Y2" s="9" t="n"/>
-      <c r="Z2" s="9" t="n"/>
-      <c r="AA2" s="9" t="n"/>
-      <c r="AB2" s="9" t="n"/>
-      <c r="AC2" s="9" t="n"/>
-      <c r="AD2" s="9" t="n"/>
-      <c r="AE2" s="9" t="n"/>
-      <c r="AF2" s="9" t="n"/>
-      <c r="AG2" s="9" t="n"/>
-      <c r="AH2" s="9" t="n"/>
-      <c r="AI2" s="9" t="n"/>
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="3" t="n"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>本科/硕士/博士</t>
+        </is>
+      </c>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>非定向、定向、少数民族骨干计划</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+      <c r="I2" s="3" t="n"/>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>男/女</t>
+        </is>
+      </c>
+      <c r="K2" s="4" t="inlineStr">
+        <is>
+          <t>须为全称</t>
+        </is>
+      </c>
+      <c r="L2" s="5" t="n"/>
+      <c r="M2" s="4" t="inlineStr">
+        <is>
+          <t>新疆内高班/统招普通</t>
+        </is>
+      </c>
+      <c r="N2" s="4" t="inlineStr">
+        <is>
+          <t>中共党员、中共预备党员、共青团员、群众</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="n"/>
+      <c r="P2" s="4" t="inlineStr">
+        <is>
+          <t>阿拉伯数字</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>20210901</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>20250701</v>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>在读/休学</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>20220901</v>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>新疆地州规范名称</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>新疆地州规范名称</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="n"/>
+      <c r="X2" s="4" t="inlineStr">
+        <is>
+          <t>农业/非农业</t>
+        </is>
+      </c>
+      <c r="Y2" s="3" t="n"/>
+      <c r="Z2" s="3" t="inlineStr">
+        <is>
+          <t>新疆地州规范名称</t>
+        </is>
+      </c>
+      <c r="AA2" s="3" t="n"/>
+      <c r="AB2" s="3" t="n"/>
+      <c r="AC2" s="3" t="n"/>
+      <c r="AD2" s="3" t="n"/>
+      <c r="AE2" s="3" t="n"/>
+      <c r="AF2" s="3" t="n"/>
+      <c r="AG2" s="3" t="n"/>
+      <c r="AH2" s="3" t="n"/>
+      <c r="AI2" s="3" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="n"/>
